--- a/test/excel/Too-map-F.xlsx
+++ b/test/excel/Too-map-F.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -110,7 +110,7 @@
     <t>w-B-O</t>
   </si>
   <si>
-    <t>I</t>
+    <t>Z</t>
   </si>
   <si>
     <t>V</t>
@@ -224,6 +224,9 @@
     <t>controlPoint</t>
   </si>
   <si>
+    <t>hidden</t>
+  </si>
+  <si>
     <t>Upper Gastrointestinal</t>
   </si>
   <si>
@@ -272,13 +275,13 @@
     <t>Airways</t>
   </si>
   <si>
-    <t>w-B-I</t>
+    <t>w-B-Z</t>
   </si>
   <si>
     <t>Oral Mucosa</t>
   </si>
   <si>
-    <t>w-I-X</t>
+    <t>w-Z-X</t>
   </si>
   <si>
     <t>Tongue</t>
@@ -293,7 +296,7 @@
     <t>Pfiltrum skin</t>
   </si>
   <si>
-    <t>w-I-f1S</t>
+    <t>w-Z-f1S</t>
   </si>
   <si>
     <t>Salivary tract</t>
@@ -357,6 +360,12 @@
   </si>
   <si>
     <t>Lactiferous Tract</t>
+  </si>
+  <si>
+    <t>w-X-Z</t>
+  </si>
+  <si>
+    <t>w-O-X</t>
   </si>
   <si>
     <t>inactive</t>
@@ -432,7 +441,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -450,6 +459,9 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <name val="Arial"/>
     </font>
     <font/>
     <font>
@@ -480,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -491,10 +503,13 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -502,17 +517,20 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -776,12 +794,8 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
-        <v>44371.0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -819,286 +833,286 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>0.2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>0.1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="5">
-        <v>0.2</v>
+      <c r="F9" s="8">
+        <v>0.8</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.3</v>
-      </c>
-    </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="6">
         <v>0.9</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="6">
         <v>0.95</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1121,519 +1135,560 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>68</v>
       </c>
+      <c r="I1" s="11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="G7" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G8" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="G9" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="D27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="I28" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+      <c r="D29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>29</v>
+      <c r="G29" s="7"/>
+      <c r="I29" s="6" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1655,88 +1710,88 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>115</v>
+      <c r="D1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="5" t="b">
+      <c r="A2" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>119</v>
+      <c r="E2" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="5" t="b">
+      <c r="A3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>123</v>
+      <c r="E3" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="5" t="b">
+      <c r="A4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>127</v>
+      <c r="E4" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="5" t="b">
+      <c r="A5" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>131</v>
+      <c r="E5" s="7" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1758,29 +1813,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="11"/>
+      <c r="A2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
